--- a/annales/2010/Annale2010.xlsx
+++ b/annales/2010/Annale2010.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE826204-6BDD-4933-8AFD-C1A181D3BD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E18C86-7D89-4D8D-9FE5-5E41E75F1F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22008" yWindow="-504" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consignes" sheetId="3" r:id="rId1"/>
     <sheet name="Lot" sheetId="4" r:id="rId2"/>
+    <sheet name="Fonction Tantième" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,24 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={14CEB585-F232-4FAD-9202-30F29C53EA84}</author>
-  </authors>
-  <commentList>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{14CEB585-F232-4FAD-9202-30F29C53EA84}">
-      <text>
-        <t xml:space="preserve">[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Pour BURLOY le parking donne 194 et pour JOLIVET le parking donne 388 </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,34 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
-  <si>
-    <t>Tableau 6A : lots et tantièmes de la copropriété</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>N° Lot</t>
   </si>
@@ -162,9 +118,6 @@
   </si>
   <si>
     <t>BOURBON</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>JUBAULT</t>
@@ -299,12 +252,174 @@
       <t>TantiemesTypeProp()</t>
     </r>
   </si>
+  <si>
+    <t>Tableau concerné</t>
+  </si>
+  <si>
+    <t>Cellule</t>
+  </si>
+  <si>
+    <t>Information à obtenir</t>
+  </si>
+  <si>
+    <t>Remarque</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>Nombre de lots de nature "parking"(nature en cellule J2)</t>
+  </si>
+  <si>
+    <t>La formule doit pouvoir être utilisée pour les cellules K3-&gt;K8</t>
+  </si>
+  <si>
+    <t>6.B</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Total des tantièmes pour les lots de nature "parking"</t>
+  </si>
+  <si>
+    <t>La formule doit pouvoir être utilisée pour les cellules L3-&gt;L8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>Total du nombre de lots</t>
+  </si>
+  <si>
+    <t>DOSSIER 5 - GESTION DES LOTS ET TANTIÈMES SUR TABLEUR</t>
+  </si>
+  <si>
+    <t>Dans l'attente d'une refonte complète du système d'information, une solution transitoire doit être mise en place. Dans cet objectif, un tableur a été utilisé afin de permettre la gestion des lots et tantièmes.</t>
+  </si>
+  <si>
+    <t>Travail  à faire</t>
+  </si>
+  <si>
+    <t>1. Travail sur tableur (annexes 6.A et 6.B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecrire les formules permettant d'obtenir les informations suivantes : </t>
+  </si>
+  <si>
+    <r>
+      <t>2. La fonction nommée TantiemesTypeProp (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nomPropriétaire : chaîne, typeLot : chaîne : decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), utilisée en cellule R3 (annexes 6.A, 6.C et 7) permet de calculer le nombre total de tantièmes pour un propriétaire et un type de garage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Rédiger l’algorithme correspondant, en utilisant la fonction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ValeurCellule() en précisant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>les noms et types de paramètres et de la valeur de retour.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bâtiment </t>
+  </si>
+  <si>
+    <t>: la copropriété comporte 2 bâtiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° </t>
+  </si>
+  <si>
+    <r>
+      <t>: numéro porté sur le lot (numéro de parking, numéro de garage, numéro d'appartement).</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Type lot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">: nature du bien (Parking, garage, Type : 1, 2, 3, 4, 5 pour les appartements). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tantièmes asc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: (non utilisé ici).</t>
+    </r>
+  </si>
+  <si>
+    <t>⬅️ 194 pour BURLOY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,10 +436,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -347,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -548,11 +692,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -581,6 +801,42 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,92 +856,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66437</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="37599" t="21344" r="24125" b="42123"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="3209925"/>
-          <a:ext cx="4905375" cy="2581037"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>77787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect b="21203"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95251" y="161926"/>
-          <a:ext cx="5172074" cy="3354386"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -757,7 +927,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Compléter les cellules grisées en s'aidant de l'annexe 6A :</a:t>
+            <a:t>Compléter les cellules grisées en s'aidant de la feuille Lot :</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1066,46 +1236,49 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="R3" dT="2023-03-22T18:21:56.09" personId="{00000000-0000-0000-0000-000000000000}" id="{14CEB585-F232-4FAD-9202-30F29C53EA84}">
-    <text xml:space="preserve">Pour BURLOY le parking donne 194 et pour JOLIVET le parking donne 388 </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1">
         <v>41</v>
@@ -1113,11 +1286,14 @@
       <c r="L3" s="9">
         <v>79499</v>
       </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="6">
         <v>1</v>
       </c>
@@ -1127,32 +1303,14 @@
       <c r="L4" s="9">
         <v>259529</v>
       </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="J5" s="6">
         <v>2</v>
       </c>
@@ -1162,35 +1320,16 @@
       <c r="L5" s="9">
         <v>305344</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="J6" s="6">
         <v>3</v>
       </c>
@@ -1200,29 +1339,14 @@
       <c r="L6" s="9">
         <v>115486</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>194</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="J7" s="6">
         <v>4</v>
       </c>
@@ -1232,29 +1356,16 @@
       <c r="L7" s="9">
         <v>157192</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>2</v>
-      </c>
-      <c r="T7" s="1">
-        <v>194</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="J8" s="6">
         <v>5</v>
       </c>
@@ -1264,561 +1375,146 @@
       <c r="L8" s="9">
         <v>74220</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
-        <v>3</v>
-      </c>
-      <c r="T8" s="1">
-        <v>194</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="11">
         <v>1000000</v>
       </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
-        <v>4</v>
-      </c>
-      <c r="T9" s="1">
-        <v>194</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1">
-        <v>194</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N12">
-        <v>48</v>
-      </c>
-      <c r="O12" s="1">
-        <v>46</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1">
-        <v>20</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N13">
-        <v>49</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1">
-        <v>21</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N14">
-        <v>50</v>
-      </c>
-      <c r="O14" s="1">
-        <v>48</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
-        <v>22</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N15">
-        <v>51</v>
-      </c>
-      <c r="O15" s="1">
-        <v>49</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <v>23</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N16">
-        <v>52</v>
-      </c>
-      <c r="O16" s="1">
-        <v>50</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1">
-        <v>24</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N17">
-        <v>53</v>
-      </c>
-      <c r="O17" s="1">
-        <v>51</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1">
-        <v>25</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1939</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N19">
+      <c r="B11" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="1">
-        <v>87</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>5</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>4</v>
-      </c>
-      <c r="T19" s="1">
-        <v>24740</v>
-      </c>
-      <c r="U19" s="1">
-        <v>56</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N20">
+      <c r="D16" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="1">
-        <v>88</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U20" s="1">
-        <v>14</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N21">
+      <c r="E16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="1">
-        <v>89</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>22</v>
-      </c>
-      <c r="T21" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U21" s="1">
-        <v>14</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N23">
-        <v>74</v>
-      </c>
-      <c r="O23" s="1">
-        <v>100</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1">
-        <v>2</v>
-      </c>
-      <c r="S23" s="1">
-        <v>14</v>
-      </c>
-      <c r="T23" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U23" s="1">
-        <v>28</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N24">
-        <v>75</v>
-      </c>
-      <c r="O24" s="1">
-        <v>101</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>2</v>
-      </c>
-      <c r="R24" s="1">
-        <v>2</v>
-      </c>
-      <c r="S24" s="1">
-        <v>11</v>
-      </c>
-      <c r="T24" s="1">
-        <v>13665</v>
-      </c>
-      <c r="U24" s="1">
-        <v>49</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N25">
-        <v>76</v>
-      </c>
-      <c r="O25" s="1">
-        <v>102</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>8</v>
-      </c>
-      <c r="T25" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U25" s="1">
-        <v>28</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N26">
-        <v>77</v>
-      </c>
-      <c r="O26" s="1">
-        <v>103</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>5</v>
-      </c>
-      <c r="R26" s="1">
-        <v>3</v>
-      </c>
-      <c r="S26" s="1">
-        <v>6</v>
-      </c>
-      <c r="T26" s="1">
-        <v>24740</v>
-      </c>
-      <c r="U26" s="1">
-        <v>169</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N27">
-        <v>78</v>
-      </c>
-      <c r="O27" s="1">
-        <v>104</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1">
-        <v>3</v>
-      </c>
-      <c r="T27" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U27" s="1">
-        <v>42</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N28">
+    </row>
+    <row r="17" spans="2:11" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
+      <c r="C19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="2:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="1">
-        <v>105</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>3</v>
-      </c>
-      <c r="S28" s="1">
-        <v>24</v>
-      </c>
-      <c r="T28" s="1">
-        <v>9612</v>
-      </c>
-      <c r="U28" s="1">
-        <v>42</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N30">
-        <v>154</v>
-      </c>
-      <c r="O30" s="1">
-        <v>152</v>
-      </c>
-      <c r="P30" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>2</v>
-      </c>
-      <c r="R30" s="1">
-        <v>7</v>
-      </c>
-      <c r="S30" s="1">
-        <v>41</v>
-      </c>
-      <c r="T30" s="1">
-        <v>13666</v>
-      </c>
-      <c r="U30" s="1">
-        <v>35</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N31">
-        <v>155</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="U31" s="1">
-        <v>2000</v>
-      </c>
-      <c r="V31" s="1"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="2:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1826,61 +1522,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A905A80-0C91-454E-8237-10C5CA89428B}">
-  <dimension ref="A1:R155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A905A80-0C91-454E-8237-10C5CA89428B}">
+  <dimension ref="A1:S155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -1891,10 +1587,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K2" s="22">
         <v>45</v>
@@ -1903,19 +1599,19 @@
         <v>8730</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R2" s="22">
         <v>16089</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -1926,10 +1622,10 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K3" s="22">
         <v>41</v>
@@ -1938,20 +1634,23 @@
         <v>79499</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R3" s="22" t="e" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">TantiemesTypeProp(R1,Q3)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1962,7 +1661,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1974,19 +1673,19 @@
         <v>259529</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R4" s="22">
         <v>1939</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1997,7 +1696,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -2015,13 +1714,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -2032,7 +1731,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
@@ -2050,7 +1749,7 @@
         <v>13956</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2075,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2100,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2110,7 +1809,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K9" s="26">
         <v>152</v>
@@ -2125,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2135,7 +1834,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2145,7 +1844,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2154,11 +1853,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="O12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2167,11 +1863,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2180,11 +1873,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2193,11 +1883,14 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2206,11 +1899,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="O16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J16" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2219,8 +1915,14 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2229,11 +1931,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J18" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2242,11 +1944,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2256,7 +1955,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2265,11 +1964,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="O21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2279,7 +1975,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2288,11 +1984,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="P23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2302,7 +1995,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2311,14 +2004,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="P25" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2327,14 +2014,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="P26" t="s">
-        <v>58</v>
-      </c>
-      <c r="R26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2344,7 +2025,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2353,11 +2034,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="O28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2367,7 +2045,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2376,11 +2054,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="P30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2389,11 +2064,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="P31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2402,11 +2074,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="P32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2415,11 +2084,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="P33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2428,11 +2094,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="P34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2441,11 +2104,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="P35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2454,11 +2114,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="P36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2467,11 +2124,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="P37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2480,11 +2134,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="O38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2493,11 +2144,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="P39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2506,11 +2154,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="P40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2520,7 +2165,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2530,7 +2175,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2540,7 +2185,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2550,7 +2195,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2560,7 +2205,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2570,7 +2215,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2580,7 +2225,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2588,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
@@ -2599,7 +2244,7 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2610,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -2621,7 +2266,7 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2632,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
@@ -2643,7 +2288,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2654,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
@@ -2665,7 +2310,7 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
@@ -2687,7 +2332,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2698,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
@@ -2709,7 +2354,7 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2845,7 +2490,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2871,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2897,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2983,7 +2628,7 @@
         <v>28</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3009,7 +2654,7 @@
         <v>49</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3061,7 +2706,7 @@
         <v>169</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3087,7 +2732,7 @@
         <v>42</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3113,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3879,7 +3524,7 @@
         <v>35</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3899,6 +3544,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8045DB09-C436-4C25-BC4B-E9718C7AA6FF}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>